--- a/DCBOOKS.xlsx
+++ b/DCBOOKS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DB65A0-A938-4FAA-874C-6C8D2FF62CF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ACE49B4-D215-46D0-B6BB-21DCC1F0CD47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{85A890CE-900B-46CE-9420-918094EA032B}"/>
   </bookViews>
